--- a/Test/テンプレート_20191017.xlsx
+++ b/Test/テンプレート_20191017.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi Hasegawa\Desktop\UMLevil\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{424CE894-5BA4-4E19-A501-D635974B8B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD07646-04F3-4CEC-BC09-512B7D56780F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA4C4374-724F-42EB-B40C-5644739C766E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表紙" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>設計書・テストテンプレート</t>
     <rPh sb="0" eb="3">
@@ -53,12 +54,47 @@
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>更新者</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yyyy/MM/dd</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,8 +110,26 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,8 +142,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -174,39 +234,236 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,140 +778,785 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DBD9F9-D43F-4E5D-8873-D591339862C6}">
+  <dimension ref="B2:BJ19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="32" max="32" width="3.625" customWidth="1"/>
+    <col min="48" max="48" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="B2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="31"/>
+      <c r="AF2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="29"/>
+      <c r="BC2" s="29"/>
+      <c r="BD2" s="29"/>
+      <c r="BE2" s="28"/>
+      <c r="BF2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG2" s="29"/>
+      <c r="BH2" s="29"/>
+      <c r="BI2" s="29"/>
+      <c r="BJ2" s="28"/>
+    </row>
+    <row r="3" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="B3" s="26"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="24"/>
+      <c r="AF3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="7"/>
+    </row>
+    <row r="4" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="B4" s="26"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="24"/>
+    </row>
+    <row r="5" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="B5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="24"/>
+    </row>
+    <row r="6" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="B6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="24"/>
+    </row>
+    <row r="7" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="B7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="24"/>
+    </row>
+    <row r="8" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="B8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="24"/>
+    </row>
+    <row r="9" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="B9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="24"/>
+    </row>
+    <row r="10" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="24"/>
+    </row>
+    <row r="11" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="24"/>
+    </row>
+    <row r="12" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="B12" s="26"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="24"/>
+    </row>
+    <row r="13" spans="2:62" x14ac:dyDescent="0.4">
+      <c r="B13" s="23"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="21"/>
+    </row>
+    <row r="14" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="17">
+        <f ca="1" xml:space="preserve"> TODAY()</f>
+        <v>43757</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="20"/>
+    </row>
+    <row r="15" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="19"/>
+    </row>
+    <row r="16" spans="2:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="19"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="15"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="12"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:AC13"/>
+    <mergeCell ref="B14:J16"/>
+    <mergeCell ref="K14:AC16"/>
+    <mergeCell ref="B17:J19"/>
+    <mergeCell ref="K17:AC19"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B849A89D-9D58-4E7C-A71A-1FF5C14F37AF}">
   <dimension ref="A1:BH9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:BH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
@@ -665,128 +1567,128 @@
       </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="5"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="5"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="8"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
